--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F23B59-994F-46A1-BDE4-2BC648FAB31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7242FE3-C759-49E3-BAE7-DA408C86B2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,39 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>建筑id</t>
-  </si>
-  <si>
-    <t>建筑名称</t>
-  </si>
-  <si>
-    <t>建筑价格</t>
-  </si>
-  <si>
-    <t>生产周期</t>
-  </si>
-  <si>
-    <t>产出价值</t>
-  </si>
-  <si>
-    <t>农田</t>
-  </si>
-  <si>
-    <t>果园</t>
-  </si>
-  <si>
-    <t>水田</t>
-  </si>
-  <si>
-    <t>鱼塘</t>
-  </si>
-  <si>
-    <t>虾塘</t>
-  </si>
-  <si>
-    <t>蟹塘</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品生产周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品销售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求该物品的建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -100,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,13 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -404,109 +449,143 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>900</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>900</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1200</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>10006</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1500</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>20007</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7242FE3-C759-49E3-BAE7-DA408C86B2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0137E2-1D7F-4C62-A43A-1CF760410E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="3435" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductionCycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductCycle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -559,7 +559,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0137E2-1D7F-4C62-A43A-1CF760410E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1353D8-88CD-4FBD-97B8-6636C7C93DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="3435" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品生产周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品销售价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,7 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductCycle</t>
+    <t>物品种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,30 +443,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -474,7 +474,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -491,7 +491,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -508,7 +508,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -525,7 +525,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -542,7 +542,7 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -559,7 +559,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1353D8-88CD-4FBD-97B8-6636C7C93DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE470D-EC1F-4D4D-BCE5-7A4BB9E1F1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="615" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,23 +93,26 @@
   <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工肉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -420,22 +423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -480,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>20007</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -497,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>20007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -514,13 +517,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E5">
         <v>20007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -531,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="E6">
         <v>20007</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -548,13 +551,13 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>20007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -565,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>20007</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -582,9 +585,26 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
         <v>20007</v>
       </c>
     </row>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE470D-EC1F-4D4D-BCE5-7A4BB9E1F1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC70C1-C015-4F7B-8D3F-E9AA607A3BA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="615" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,23 +96,27 @@
   </si>
   <si>
     <t>加工肉</t>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -423,22 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -489,7 +493,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -506,7 +510,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -523,7 +527,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -540,7 +544,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -557,7 +561,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -574,7 +578,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -591,7 +595,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -605,6 +609,23 @@
         <v>400</v>
       </c>
       <c r="E10">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>20007</v>
       </c>
     </row>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC70C1-C015-4F7B-8D3F-E9AA607A3BA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F787A4B-DAFC-4741-ACDE-3406CDEBF2EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="3465" windowWidth="6705" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,34 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水稻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +67,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加工肉</t>
-  </si>
-  <si>
-    <t>石头</t>
+    <t>Wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawMeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaborForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessedMeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,13 +431,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
@@ -450,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -467,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -481,7 +482,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -498,7 +499,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -515,7 +516,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -532,7 +533,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -549,7 +550,7 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -566,7 +567,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -583,7 +584,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F787A4B-DAFC-4741-ACDE-3406CDEBF2EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB66AA-1611-4C47-A0C4-0D1199A48CA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3465" windowWidth="6705" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -502,7 +506,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>95</v>
@@ -519,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -536,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>450</v>
@@ -553,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>125</v>
@@ -570,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>115</v>
@@ -587,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -604,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>400</v>
@@ -621,12 +625,29 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
         <v>20007</v>
       </c>
     </row>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB66AA-1611-4C47-A0C4-0D1199A48CA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D170B-386E-400A-93BF-4714818703D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LaborForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcessedMeat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,14 @@
   </si>
   <si>
     <t>HumanResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,130 +486,130 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10001</v>
+      <c r="A3" s="1">
+        <v>11000</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10002</v>
+        <v>11001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10003</v>
+        <v>11002</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10004</v>
+        <v>12003</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10005</v>
+        <v>12004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="E7">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10006</v>
+        <v>11005</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E8">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10007</v>
+        <v>12006</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E9">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10008</v>
+        <v>11008</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -614,32 +618,32 @@
         <v>400</v>
       </c>
       <c r="E10">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10009</v>
+        <v>12009</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>20007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -648,7 +652,24 @@
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>20007</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>99999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D170B-386E-400A-93BF-4714818703D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B0080-1BA9-4366-A8E1-B98102085194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B0080-1BA9-4366-A8E1-B98102085194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB3857-1398-4C8A-8D4C-2F7C519129E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB3857-1398-4C8A-8D4C-2F7C519129E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57A2CF-B8D5-4ABE-9362-E26354F8A7DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="1170" windowWidth="28785" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +158,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,19 +456,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -472,16 +476,16 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -489,186 +493,203 @@
       <c r="A3" s="1">
         <v>11000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>11001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>11002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>95</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>12003</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>300</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>12004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>450</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>11005</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>125</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>12006</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>115</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>11008</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>12009</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>1000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>99999</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>11010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57A2CF-B8D5-4ABE-9362-E26354F8A7DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB744E-D6C0-4656-9675-F5B7E92CAF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1170" windowWidth="28785" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="2370" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -442,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -534,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -551,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -568,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -585,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -602,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -687,13 +690,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB744E-D6C0-4656-9675-F5B7E92CAF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9967C11C-95E1-4B8A-BC2D-CE43BF4027A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="2370" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9967C11C-95E1-4B8A-BC2D-CE43BF4027A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79A9625-7194-4713-99DC-AFA83D7EC598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="3315" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79A9625-7194-4713-99DC-AFA83D7EC598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CA309-98DB-4740-A977-E658D1C01CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="3315" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="2400" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>Sausage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,6 +700,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>11011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CA309-98DB-4740-A977-E658D1C01CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CFFE4C-89DA-42DF-97EF-AB68B0B3353C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2400" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CFFE4C-89DA-42DF-97EF-AB68B0B3353C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E530E-2CB3-4357-9F28-868CA589B6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E530E-2CB3-4357-9F28-868CA589B6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195AB122-BD87-4DB9-B95B-8C829D5A3021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="3240" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canned meat</t>
+  </si>
+  <si>
+    <t>Canned Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,6 +744,125 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>12012</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>12013</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>11014</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>12015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>12018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195AB122-BD87-4DB9-B95B-8C829D5A3021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CDAA8-AD14-40C6-8EC8-3AF1862AAE94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="3240" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="3540" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,9 @@
   <si>
     <t>Canned Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed buns</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,6 +866,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>11019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CDAA8-AD14-40C6-8EC8-3AF1862AAE94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8C94E-F522-4EB3-8A96-E222483556CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="3540" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-915" yWindow="2130" windowWidth="16425" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RawMeat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,22 +130,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Building Material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canned meat</t>
-  </si>
-  <si>
-    <t>Canned Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed buns</t>
+    <t>Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mantou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeatTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +537,7 @@
         <v>11000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -599,13 +605,13 @@
         <v>12004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -616,7 +622,7 @@
         <v>11005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -633,7 +639,7 @@
         <v>12006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -650,7 +656,7 @@
         <v>11008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -667,7 +673,7 @@
         <v>12009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -684,7 +690,7 @@
         <v>10000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -701,7 +707,7 @@
         <v>99999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -718,7 +724,7 @@
         <v>11010</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -735,7 +741,7 @@
         <v>11011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -752,7 +758,7 @@
         <v>12012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -769,7 +775,7 @@
         <v>12013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -786,7 +792,7 @@
         <v>11014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -820,7 +826,7 @@
         <v>11016</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -837,7 +843,7 @@
         <v>11017</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -854,7 +860,7 @@
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -871,7 +877,7 @@
         <v>11019</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -880,6 +886,23 @@
         <v>6</v>
       </c>
       <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>12020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8C94E-F522-4EB3-8A96-E222483556CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9020C-EB19-43FA-BA4B-268B0D6310EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-915" yWindow="2130" windowWidth="16425" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求该物品的建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vegitable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Clothes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +143,17 @@
   </si>
   <si>
     <t>Furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>幸福度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,15 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
@@ -506,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -537,7 +536,7 @@
         <v>11000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -554,16 +553,16 @@
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -571,16 +570,16 @@
         <v>11002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -588,13 +587,13 @@
         <v>12003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -605,13 +604,13 @@
         <v>12004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -622,16 +621,16 @@
         <v>11005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,13 +638,13 @@
         <v>12006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -656,16 +655,16 @@
         <v>11008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -673,7 +672,7 @@
         <v>12009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -690,7 +689,7 @@
         <v>10000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -707,7 +706,7 @@
         <v>99999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -724,16 +723,16 @@
         <v>11010</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,16 +740,16 @@
         <v>11011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,13 +757,13 @@
         <v>12012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -775,13 +774,13 @@
         <v>12013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -792,7 +791,7 @@
         <v>11014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -801,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -809,13 +808,13 @@
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -826,16 +825,16 @@
         <v>11016</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,16 +842,16 @@
         <v>11017</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -860,7 +859,7 @@
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -877,16 +876,16 @@
         <v>11019</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,13 +893,13 @@
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9020C-EB19-43FA-BA4B-268B0D6310EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8506993-313E-4F97-A7AA-7DA01E063CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8506993-313E-4F97-A7AA-7DA01E063CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027AB6D9-5B62-4DFF-8A7E-B5C5D665C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,78 +82,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mantou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeatTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>幸福度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ProcessedMeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HumanResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sausage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mantou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeatTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IronMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Furniture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vegetable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happiness</t>
-  </si>
-  <si>
-    <t>幸福度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,10 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +488,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -528,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -536,7 +539,7 @@
         <v>11000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -604,7 +607,7 @@
         <v>12004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -654,8 +657,8 @@
       <c r="A10" s="1">
         <v>11008</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -672,7 +675,7 @@
         <v>12009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -689,7 +692,7 @@
         <v>10000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -706,7 +709,7 @@
         <v>99999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -723,7 +726,7 @@
         <v>11010</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -740,7 +743,7 @@
         <v>11011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -757,7 +760,7 @@
         <v>12012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -774,7 +777,7 @@
         <v>12013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -791,7 +794,7 @@
         <v>11014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -808,7 +811,7 @@
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -825,7 +828,7 @@
         <v>11016</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -842,7 +845,7 @@
         <v>11017</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -876,7 +879,7 @@
         <v>11019</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027AB6D9-5B62-4DFF-8A7E-B5C5D665C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4BC1B-635E-4A3B-AC45-646B3BADA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4BC1B-635E-4A3B-AC45-646B3BADA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03D589-87E0-429E-9287-5A105E160842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>ProcessedMeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,6 +912,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>11021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -1,29 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03D589-87E0-429E-9287-5A105E160842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -31,165 +20,462 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品种类</t>
   </si>
   <si>
     <t>物品销售价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福度</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
   <si>
     <t>Wheat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture</t>
   </si>
   <si>
     <t>RawMeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessedMeat</t>
   </si>
   <si>
     <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HumanResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sausage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>StoneMaterial</t>
+  </si>
+  <si>
+    <t>MeatTin</t>
+  </si>
+  <si>
+    <t>FishTin</t>
   </si>
   <si>
     <t>Clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mantou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeatTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IronMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Furniture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vegetable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happiness</t>
-  </si>
-  <si>
-    <t>幸福度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessedMeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -197,9 +483,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -210,17 +738,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -269,7 +841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -304,7 +876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -478,33 +1050,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="83.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,38 +1079,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>11000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -555,63 +1122,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>11002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>12003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>12004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -623,63 +1190,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>11005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>12006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>11008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>12009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -691,12 +1258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -708,12 +1275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>99999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -725,29 +1292,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>11010</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>11011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -759,12 +1326,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>12012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -776,12 +1343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>12013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -793,12 +1360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>11014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -810,29 +1377,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>12015</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>11016</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -844,63 +1411,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>11017</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>12018</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>11019</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>12020</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -912,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>11021</v>
       </c>
@@ -923,16 +1490,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{7E9AA0B2-ADCD-4379-8C66-9EC9A7C68A0C}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E25">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Item.xlsx
+++ b/Assets/Resources/Data/RawData/Item.xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,22 +145,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,66 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -242,17 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,12 +246,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +269,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +290,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,49 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,109 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,30 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,6 +510,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +547,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,130 +602,130 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
